--- a/Sambot_Unit_Test.xlsx
+++ b/Sambot_Unit_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive - ESIGELEC\2A\Méthode et Outils pour la Qalité Logicielle\GIT\SamBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C530B1A-C82C-4650-A459-2FDAF1D9D72F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65DE24D-DA32-4A67-B728-5F52A6780771}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>Detailed Design Requirements</t>
   </si>
@@ -174,13 +174,78 @@
     <t>Test if the wheels are driven by the motor if a hole is detected</t>
   </si>
   <si>
-    <t>Both the wheels shall be driven at the same speed</t>
-  </si>
-  <si>
-    <t>The right wheel shall be driven clockwise and left wheel counterclockwise in order to turn the robot 90°</t>
-  </si>
-  <si>
-    <t>The right wheel shall be driven clockwise and left wheel counterclockwise in order to turn the robot 180°</t>
+    <t>Test if an obstacle is considered detected when the value is under than a threshold (8)</t>
+  </si>
+  <si>
+    <t>Test if ultrason sensor detects an obstacle</t>
+  </si>
+  <si>
+    <t>If input is greater than 8 it should return 0, else it should return 1</t>
+  </si>
+  <si>
+    <t>2,
+4,
+8,
+10,
+12,
+14</t>
+  </si>
+  <si>
+    <t>DDR_00200</t>
+  </si>
+  <si>
+    <t>DDR_00205</t>
+  </si>
+  <si>
+    <t>TU_00200</t>
+  </si>
+  <si>
+    <t>TU_00205</t>
+  </si>
+  <si>
+    <t>A puse should be sent to both whells motors</t>
+  </si>
+  <si>
+    <t>A reverse pulse should be sent to the both whells motors to do a 90°</t>
+  </si>
+  <si>
+    <t>A reverse pulse should be sent to the both whells motors to do a 180°</t>
+  </si>
+  <si>
+    <t>DDR_00210</t>
+  </si>
+  <si>
+    <t>TU_00210</t>
+  </si>
+  <si>
+    <t>DDR_00300</t>
+  </si>
+  <si>
+    <t>TU_00300</t>
+  </si>
+  <si>
+    <t>TU_00211</t>
+  </si>
+  <si>
+    <t>Test if the servomotor rotates [-45°;+45] clockwise</t>
+  </si>
+  <si>
+    <t>Test if the servomotor rotates [-45°;+45] counterclockwise</t>
+  </si>
+  <si>
+    <t>A pulse should be sent on the servomotor (clockwise pulse)</t>
+  </si>
+  <si>
+    <t>A pulse should be sent on the servomotor (counterclockwise pulse)</t>
+  </si>
+  <si>
+    <t>Test if ultrason sensor detects a hole</t>
+  </si>
+  <si>
+    <t>A pulse should be sent to the infrared sensor  when he detects a hole to take measure</t>
+  </si>
+  <si>
+    <t>A pulse should be sent to the ultrason sensor when he detects an obstacle to take measure</t>
   </si>
 </sst>
 </file>
@@ -237,7 +302,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -276,15 +362,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15256A83-394A-428D-A7BC-A80D43FB49E7}" name="Tableau1" displayName="Tableau1" ref="A1:F11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F11" xr:uid="{2991FC0F-3E0C-4893-B79A-AE9CB9605A44}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15256A83-394A-428D-A7BC-A80D43FB49E7}" name="Tableau1" displayName="Tableau1" ref="A1:F16" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:F16" xr:uid="{2991FC0F-3E0C-4893-B79A-AE9CB9605A44}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DD7A0286-1FFB-454E-99AE-A762B81365E2}" name="Detailed Design Requirements" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{FBB99E28-0159-4D49-89A8-E463CAF15B70}" name="Test Identifier" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D0E2BF31-1E96-4685-B5C7-9550E49A8309}" name="Test description" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{E840EC89-E87A-459D-B529-2AB033AAD747}" name="Datas input" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{20985630-5670-4F81-B446-24E4659C0134}" name="Datas excpected output" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F7D2E23F-A373-4F59-9B54-5D5536343886}" name="Pass/Fail" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DD7A0286-1FFB-454E-99AE-A762B81365E2}" name="Detailed Design Requirements" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{FBB99E28-0159-4D49-89A8-E463CAF15B70}" name="Test Identifier" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{D0E2BF31-1E96-4685-B5C7-9550E49A8309}" name="Test description" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{E840EC89-E87A-459D-B529-2AB033AAD747}" name="Datas input" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{20985630-5670-4F81-B446-24E4659C0134}" name="Datas excpected output" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{F7D2E23F-A373-4F59-9B54-5D5536343886}" name="Pass/Fail" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -553,15 +639,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="33.28515625" customWidth="1"/>
+    <col min="1" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="4" max="6" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -584,7 +672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -594,15 +682,13 @@
       <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -614,11 +700,11 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -630,174 +716,216 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -984,8 +1112,56 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F2:F16">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Sambot_Unit_Test.xlsx
+++ b/Sambot_Unit_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive - ESIGELEC\2A\Méthode et Outils pour la Qalité Logicielle\GIT\SamBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65DE24D-DA32-4A67-B728-5F52A6780771}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65198EB9-C51D-4CE0-8443-28B76DFC4A74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
     <t>Detailed Design Requirements</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>A pulse should be sent to the ultrason sensor when he detects an obstacle to take measure</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -302,28 +305,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -348,6 +330,20 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -362,15 +358,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15256A83-394A-428D-A7BC-A80D43FB49E7}" name="Tableau1" displayName="Tableau1" ref="A1:F16" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15256A83-394A-428D-A7BC-A80D43FB49E7}" name="Tableau1" displayName="Tableau1" ref="A1:F16" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F16" xr:uid="{2991FC0F-3E0C-4893-B79A-AE9CB9605A44}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DD7A0286-1FFB-454E-99AE-A762B81365E2}" name="Detailed Design Requirements" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{FBB99E28-0159-4D49-89A8-E463CAF15B70}" name="Test Identifier" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{D0E2BF31-1E96-4685-B5C7-9550E49A8309}" name="Test description" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{E840EC89-E87A-459D-B529-2AB033AAD747}" name="Datas input" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{20985630-5670-4F81-B446-24E4659C0134}" name="Datas excpected output" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{F7D2E23F-A373-4F59-9B54-5D5536343886}" name="Pass/Fail" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{DD7A0286-1FFB-454E-99AE-A762B81365E2}" name="Detailed Design Requirements" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{FBB99E28-0159-4D49-89A8-E463CAF15B70}" name="Test Identifier" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{D0E2BF31-1E96-4685-B5C7-9550E49A8309}" name="Test description" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{E840EC89-E87A-459D-B529-2AB033AAD747}" name="Datas input" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{20985630-5670-4F81-B446-24E4659C0134}" name="Datas excpected output" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{F7D2E23F-A373-4F59-9B54-5D5536343886}" name="Pass/Fail" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -642,7 +638,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +682,9 @@
       <c r="E2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -702,7 +700,9 @@
       <c r="E3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -718,7 +718,9 @@
       <c r="E4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -734,7 +736,9 @@
       <c r="E5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -752,7 +756,9 @@
       <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -768,7 +774,9 @@
       <c r="E7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -784,7 +792,9 @@
       <c r="E8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -800,7 +810,9 @@
       <c r="E9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -818,7 +830,9 @@
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -836,7 +850,9 @@
       <c r="E11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -854,7 +870,9 @@
       <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -872,7 +890,9 @@
       <c r="E13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -890,7 +910,9 @@
       <c r="E14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -908,7 +930,9 @@
       <c r="E15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -926,7 +950,9 @@
       <c r="E16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -1155,10 +1181,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F2:F16">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",F2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Sambot_Unit_Test.xlsx
+++ b/Sambot_Unit_Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive - ESIGELEC\2A\Méthode et Outils pour la Qalité Logicielle\GIT\SamBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Megaport\git\SamBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65198EB9-C51D-4CE0-8443-28B76DFC4A74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEF5C24-231D-4328-BF70-4790DDEB363B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
   <si>
     <t>Detailed Design Requirements</t>
   </si>
@@ -51,111 +51,9 @@
     <t>DDR_00600</t>
   </si>
   <si>
-    <t>DDR_00610</t>
-  </si>
-  <si>
-    <t>DDR_00700</t>
-  </si>
-  <si>
-    <t>DDR_00710</t>
-  </si>
-  <si>
-    <t>DDR_00800</t>
-  </si>
-  <si>
-    <t>DDR_00810</t>
-  </si>
-  <si>
     <t>TU_00100</t>
   </si>
   <si>
-    <t>TU_00600</t>
-  </si>
-  <si>
-    <t>TU_00610</t>
-  </si>
-  <si>
-    <t>TU_00700</t>
-  </si>
-  <si>
-    <t>TU_00710</t>
-  </si>
-  <si>
-    <t>TU_00800</t>
-  </si>
-  <si>
-    <t>TU_00810</t>
-  </si>
-  <si>
-    <t>0
-1
-2
-a</t>
-  </si>
-  <si>
-    <t>DDR_00305</t>
-  </si>
-  <si>
-    <t>TU_00305</t>
-  </si>
-  <si>
-    <t>Test if a hole is considered detected when the value is greater than a threshold (400)</t>
-  </si>
-  <si>
-    <t>200,
-300,
-450,
-600</t>
-  </si>
-  <si>
-    <t>If input is greater than 400 it should return 1, else it should return 0</t>
-  </si>
-  <si>
-    <t>0',
-'1',
-'8',
-'a'</t>
-  </si>
-  <si>
-    <t>If input is equal to '1' then on should be set to 1</t>
-  </si>
-  <si>
-    <t>Test if the global variable 'on' is set to 1 when the input is '1'</t>
-  </si>
-  <si>
-    <t>Test if the global variable 'on' is set to 0 when the input is '0'</t>
-  </si>
-  <si>
-    <t>If input is equal to '0' then on should be set to 0</t>
-  </si>
-  <si>
-    <t>Test if the global variable 'log' is set to 1 when the input is '3'</t>
-  </si>
-  <si>
-    <t>Test if the global variable 'log' is set to 0 when the input is '2'</t>
-  </si>
-  <si>
-    <t>If input is equal to '2' then log should be set to 0</t>
-  </si>
-  <si>
-    <t>If input is equal to '3' then log should be set to 1</t>
-  </si>
-  <si>
-    <t>Test if the robot pivot to the right when the input is 1</t>
-  </si>
-  <si>
-    <t>If input is 1 then the robot should pivot to the right, else it should do nothing</t>
-  </si>
-  <si>
-    <t>Test if the robot turn around when the input is 1</t>
-  </si>
-  <si>
-    <t>If input is 1 then the robot should turn arround, else it should do nothing</t>
-  </si>
-  <si>
-    <t>Test if the wheels are drive by the motor if the user turn the bot on</t>
-  </si>
-  <si>
     <t>DDR_00110</t>
   </si>
   <si>
@@ -168,87 +66,294 @@
     <t>TU_00120</t>
   </si>
   <si>
-    <t>Test if the wheels are driven by the motor if an obstacle is detected</t>
-  </si>
-  <si>
-    <t>Test if the wheels are driven by the motor if a hole is detected</t>
-  </si>
-  <si>
-    <t>Test if an obstacle is considered detected when the value is under than a threshold (8)</t>
-  </si>
-  <si>
-    <t>Test if ultrason sensor detects an obstacle</t>
-  </si>
-  <si>
-    <t>If input is greater than 8 it should return 0, else it should return 1</t>
+    <t>DDR_00200</t>
+  </si>
+  <si>
+    <t>TU_00200</t>
+  </si>
+  <si>
+    <t>DDR_00210</t>
+  </si>
+  <si>
+    <t>TU_00210</t>
+  </si>
+  <si>
+    <t>DDR_00300</t>
+  </si>
+  <si>
+    <t>TU_00300</t>
+  </si>
+  <si>
+    <t>Test if the servomotor rotates [-45°;+45] clockwise</t>
+  </si>
+  <si>
+    <t>Test if the servomotor rotates [-45°;+45] counterclockwise</t>
+  </si>
+  <si>
+    <t>A pulse should be sent on the servomotor (clockwise pulse)</t>
+  </si>
+  <si>
+    <t>A pulse should be sent on the servomotor (counterclockwise pulse)</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Test if the wheels are driven by the motor if the user press the "move right" key</t>
+  </si>
+  <si>
+    <t>Test if the wheels are driven by the motor if the user turn the autopilot mode on  and there is no hole and no obstacle. Or if press the "move forward" key"</t>
+  </si>
+  <si>
+    <t>Test if the wheels are driven by the motor if the user turn the autopilot mode on and there is a hole or an obstacle. Or if press the "move right" key"</t>
+  </si>
+  <si>
+    <t>DDR_00130</t>
+  </si>
+  <si>
+    <t>TU_00130</t>
+  </si>
+  <si>
+    <t>Test if the wheels are driven by the motor if the user press the "move backward" key</t>
+  </si>
+  <si>
+    <t>Test if the MSP2231 acquire ultrasound sensor data continously</t>
+  </si>
+  <si>
+    <t>Test if the MSP2231 acquire infrared sensor data continously</t>
+  </si>
+  <si>
+    <t>Test if the variable on is set to 1 when the MSP430G2553 receive command "1" through UART</t>
+  </si>
+  <si>
+    <t>DDR_00310</t>
+  </si>
+  <si>
+    <t>TU_00310</t>
+  </si>
+  <si>
+    <t>Test if the variable on is set to 0 when the MSP430G2553 receive command "0" through UART</t>
+  </si>
+  <si>
+    <t>1,
+2,
+x,
+54</t>
+  </si>
+  <si>
+    <t>On should be set to 1</t>
+  </si>
+  <si>
+    <t>0,
+2,
+x,
+54</t>
+  </si>
+  <si>
+    <t>On should be set to 0</t>
+  </si>
+  <si>
+    <t>DDR_00320</t>
+  </si>
+  <si>
+    <t>DDR_00330</t>
+  </si>
+  <si>
+    <t>DDR_00340</t>
+  </si>
+  <si>
+    <t>DDR_00350</t>
+  </si>
+  <si>
+    <t>TU_00320</t>
+  </si>
+  <si>
+    <t>TU_00330</t>
+  </si>
+  <si>
+    <t>TU_00340</t>
+  </si>
+  <si>
+    <t>TU_00350</t>
+  </si>
+  <si>
+    <t>Test if the variable log is set to 0 when the MSP430G2553 receive command "2" through UART</t>
   </si>
   <si>
     <t>2,
-4,
-8,
-10,
-12,
-14</t>
-  </si>
-  <si>
-    <t>DDR_00200</t>
-  </si>
-  <si>
-    <t>DDR_00205</t>
-  </si>
-  <si>
-    <t>TU_00200</t>
-  </si>
-  <si>
-    <t>TU_00205</t>
-  </si>
-  <si>
-    <t>A puse should be sent to both whells motors</t>
-  </si>
-  <si>
-    <t>A reverse pulse should be sent to the both whells motors to do a 90°</t>
-  </si>
-  <si>
-    <t>A reverse pulse should be sent to the both whells motors to do a 180°</t>
-  </si>
-  <si>
-    <t>DDR_00210</t>
-  </si>
-  <si>
-    <t>TU_00210</t>
-  </si>
-  <si>
-    <t>DDR_00300</t>
-  </si>
-  <si>
-    <t>TU_00300</t>
-  </si>
-  <si>
-    <t>TU_00211</t>
-  </si>
-  <si>
-    <t>Test if the servomotor rotates [-45°;+45] clockwise</t>
-  </si>
-  <si>
-    <t>Test if the servomotor rotates [-45°;+45] counterclockwise</t>
-  </si>
-  <si>
-    <t>A pulse should be sent on the servomotor (clockwise pulse)</t>
-  </si>
-  <si>
-    <t>A pulse should be sent on the servomotor (counterclockwise pulse)</t>
-  </si>
-  <si>
-    <t>Test if ultrason sensor detects a hole</t>
-  </si>
-  <si>
-    <t>A pulse should be sent to the infrared sensor  when he detects a hole to take measure</t>
-  </si>
-  <si>
-    <t>A pulse should be sent to the ultrason sensor when he detects an obstacle to take measure</t>
-  </si>
-  <si>
-    <t>PASS</t>
+5,
+x,
+54</t>
+  </si>
+  <si>
+    <t>Log should be set to 1</t>
+  </si>
+  <si>
+    <t>Test if the variable log is set to 1 when the MSP430G2553 receive command "3" through UART</t>
+  </si>
+  <si>
+    <t>3,
+5,
+x,
+54</t>
+  </si>
+  <si>
+    <t>Log should be set to 0</t>
+  </si>
+  <si>
+    <t>Test if the variable servo is set to 1 when the MSP430G2553 receive command "l" through UART</t>
+  </si>
+  <si>
+    <t>l,
+5,
+x,
+54</t>
+  </si>
+  <si>
+    <t>Servo should be set to 1</t>
+  </si>
+  <si>
+    <t>Test if the variable servo is set to 1 when the MSP430G2553 receive command "m" through UART</t>
+  </si>
+  <si>
+    <t>m,
+5,
+x,
+54</t>
+  </si>
+  <si>
+    <t>Servo should be set to 0</t>
+  </si>
+  <si>
+    <t>DDR_00360</t>
+  </si>
+  <si>
+    <t>TU_00360</t>
+  </si>
+  <si>
+    <t>Test if list of commands is displayed on remote user terminal</t>
+  </si>
+  <si>
+    <t>h,
+5,
+x,
+54</t>
+  </si>
+  <si>
+    <t>Commands list should be displayed on remote user terminal</t>
+  </si>
+  <si>
+    <t>DDR_00400</t>
+  </si>
+  <si>
+    <t>TU_00400</t>
+  </si>
+  <si>
+    <t>DDR_00410</t>
+  </si>
+  <si>
+    <t>TU_00410</t>
+  </si>
+  <si>
+    <t>DDR_00420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test if data is written in obstacle_value when BIT #8 is set to 0,
+Test if data is written in hole_value when BIT #8 is set to 1
+</t>
+  </si>
+  <si>
+    <t>data sensor from ultrasound sensor should be written in obstacle_value when BIT #8 is set to 0,
+data sensor from infrared sensor should be written in hole_value when BIT #8 is set to 0</t>
+  </si>
+  <si>
+    <t>Test if 2231 answers ultrasound sensors data when receive char 'x'</t>
+  </si>
+  <si>
+    <t>2231 should set BIT #8 to 0 and write ultrasound sensor data in the 7 remaining BITs</t>
+  </si>
+  <si>
+    <t>Test if 2231 answers infrared sensors data when receive char 'y'</t>
+  </si>
+  <si>
+    <t>2231 should set BIT #8 to 1 and write infrared sensor data in the 7 remaining BITs</t>
+  </si>
+  <si>
+    <t>DDR_00500</t>
+  </si>
+  <si>
+    <t>TU_00420</t>
+  </si>
+  <si>
+    <t>TU_00500</t>
+  </si>
+  <si>
+    <t>Test if the timer triggers the interruption function</t>
+  </si>
+  <si>
+    <t>2553s timer interruption should be called recurrently</t>
+  </si>
+  <si>
+    <t>DDR_00220</t>
+  </si>
+  <si>
+    <t>TU_00220</t>
+  </si>
+  <si>
+    <t>DDR_00230</t>
+  </si>
+  <si>
+    <t>TU_00230</t>
+  </si>
+  <si>
+    <t>Test if a hole is considered detected when the value is under than a threshold</t>
+  </si>
+  <si>
+    <t>Test if an obstacle is considered detected when the value is under than a threshold</t>
+  </si>
+  <si>
+    <t>If obstacle_value is under 28 an obstacle should be considered detected</t>
+  </si>
+  <si>
+    <t>8,
+15,
+20,
+30,
+45,
+60</t>
+  </si>
+  <si>
+    <t>If hole_value is under 28 a hole should be considered detected</t>
+  </si>
+  <si>
+    <t>TU_00600A</t>
+  </si>
+  <si>
+    <t>TU_00600B</t>
+  </si>
+  <si>
+    <t>A PWM pulse should be sent to both wheels motors</t>
+  </si>
+  <si>
+    <t>A reverse pulse should be sent to the both whells motors to do a 90° turn on the right</t>
+  </si>
+  <si>
+    <t>A reverse pulse should be sent to the both whells motors to do a 90° turn on the left</t>
+  </si>
+  <si>
+    <t>A reverse PWM pulse should be sent to both wheels motors</t>
+  </si>
+  <si>
+    <t>obstacle_value should always be updated</t>
+  </si>
+  <si>
+    <t>hole_value should always be updated</t>
+  </si>
+  <si>
+    <t>x,
+y,
+z,
+2</t>
   </si>
 </sst>
 </file>
@@ -290,12 +395,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -333,14 +435,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -358,8 +460,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15256A83-394A-428D-A7BC-A80D43FB49E7}" name="Tableau1" displayName="Tableau1" ref="A1:F16" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F16" xr:uid="{2991FC0F-3E0C-4893-B79A-AE9CB9605A44}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15256A83-394A-428D-A7BC-A80D43FB49E7}" name="Tableau1" displayName="Tableau1" ref="A1:F22" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F22" xr:uid="{2991FC0F-3E0C-4893-B79A-AE9CB9605A44}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DD7A0286-1FFB-454E-99AE-A762B81365E2}" name="Detailed Design Requirements" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{FBB99E28-0159-4D49-89A8-E463CAF15B70}" name="Test Identifier" dataDxfId="4"/>
@@ -635,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,358 +751,424 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -1178,14 +1346,46 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F2:F16">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="PASS">
+  <conditionalFormatting sqref="F2:F22">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",F2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH("FAIL",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
